--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>成都</t>
   </si>
@@ -204,6 +204,24 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>テコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <rPh sb="0" eb="1">
+      <t>チー</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.85"/>
@@ -702,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -832,6 +850,9 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
@@ -840,6 +861,17 @@
       </c>
       <c r="J8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="8693"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>成都</t>
   </si>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アガリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>14+槓</t>
     <rPh sb="3" eb="4">
       <t>テコ</t>
@@ -107,10 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無槓連荘</t>
     <rPh sb="0" eb="1">
       <t>ム</t>
@@ -192,22 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>18+明杠+2暗杠+2花杠</t>
-    <rPh sb="3" eb="5">
-      <t>ミンカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>アンカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>テコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吃</t>
     <rPh sb="0" eb="1">
       <t>チー</t>
@@ -215,13 +187,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>アガリ</t>
+  </si>
+  <si>
+    <t>あり</t>
+  </si>
+  <si>
     <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必須</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
+  </si>
+  <si>
+    <t>18+杠</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -551,332 +528,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="6.546875" customWidth="1"/>
+    <col min="2" max="2" width="4.546875" customWidth="1"/>
+    <col min="3" max="3" width="6.546875" customWidth="1"/>
+    <col min="6" max="6" width="4.546875" customWidth="1"/>
+    <col min="7" max="7" width="6.546875" customWidth="1"/>
+    <col min="8" max="9" width="4.546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A2" t="s">
-        <v>27</v>
       </c>
       <c r="B2">
         <v>108</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>136</v>
       </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>136</v>
       </c>
-      <c r="E2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>136</v>
       </c>
-      <c r="F2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>136</v>
       </c>
-      <c r="G2">
-        <v>112</v>
-      </c>
-      <c r="H2">
-        <v>136</v>
-      </c>
-      <c r="I2">
-        <v>108</v>
-      </c>
-      <c r="J2">
-        <v>144</v>
-      </c>
-      <c r="K2">
-        <v>136</v>
-      </c>
-      <c r="L2">
-        <v>144</v>
-      </c>
-      <c r="M2">
-        <v>144</v>
-      </c>
-      <c r="N2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>136</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>136</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.85">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>136</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -196,10 +196,7 @@
     <t>なし</t>
   </si>
   <si>
-    <t>18+杠</t>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
+    <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -230,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -238,14 +235,230 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,332 +753,433 @@
     <col min="6" max="6" width="4.546875" customWidth="1"/>
     <col min="7" max="7" width="6.546875" customWidth="1"/>
     <col min="8" max="9" width="4.546875" customWidth="1"/>
+    <col min="10" max="14" width="6.546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>108</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>136</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A5" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A6" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>136</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>112</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A8" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>136</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A9" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>108</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A10" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>144</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A11" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>136</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A12" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>144</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A13" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>144</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A14" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>136</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>